--- a/Team-Data/2013-14/1-21-2013-14.xlsx
+++ b/Team-Data/2013-14/1-21-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -756,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
@@ -780,7 +847,7 @@
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -807,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -848,37 +915,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J3" t="n">
         <v>83</v>
       </c>
       <c r="K3" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L3" t="n">
         <v>6.2</v>
       </c>
       <c r="M3" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.328</v>
+        <v>0.332</v>
       </c>
       <c r="O3" t="n">
         <v>16.1</v>
@@ -887,16 +954,16 @@
         <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S3" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U3" t="n">
         <v>19.7</v>
@@ -905,7 +972,7 @@
         <v>15.4</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
@@ -914,25 +981,25 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
         <v>18.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF3" t="n">
         <v>26</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>27</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
@@ -959,28 +1026,28 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS3" t="n">
         <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU3" t="n">
         <v>28</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>27</v>
@@ -989,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -1030,61 +1097,61 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.45</v>
+        <v>0.436</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="N4" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O4" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="P4" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R4" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S4" t="n">
         <v>30.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
         <v>7.3</v>
@@ -1093,25 +1160,25 @@
         <v>4.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.8</v>
+        <v>-3.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
@@ -1132,7 +1199,7 @@
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
         <v>16</v>
@@ -1147,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1159,31 +1226,31 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
       </c>
       <c r="AY4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1320,13 +1387,13 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ5" t="n">
         <v>23</v>
@@ -1359,13 +1426,13 @@
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
         <v>28</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1505,7 +1572,7 @@
         <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1663,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
@@ -1708,19 +1775,19 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW7" t="n">
         <v>23</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY7" t="n">
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
         <v>21</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1878,10 +1945,10 @@
         <v>3</v>
       </c>
       <c r="AR8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>29</v>
@@ -1890,16 +1957,16 @@
         <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>12</v>
@@ -1908,7 +1975,7 @@
         <v>29</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2036,10 +2103,10 @@
         <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
         <v>10</v>
@@ -2084,10 +2151,10 @@
         <v>20</v>
       </c>
       <c r="AZ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
         <v>23</v>
@@ -2448,7 +2515,7 @@
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2606,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>9.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2800,7 +2867,7 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
@@ -2809,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2952,7 +3019,7 @@
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
@@ -3131,7 +3198,7 @@
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3158,13 +3225,13 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
@@ -3304,7 +3371,7 @@
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>17</v>
@@ -3322,13 +3389,13 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP16" t="n">
         <v>25</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
         <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.714</v>
+        <v>0.707</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3414,37 +3481,37 @@
         <v>38.9</v>
       </c>
       <c r="J17" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K17" t="n">
         <v>0.506</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.373</v>
+        <v>0.376</v>
       </c>
       <c r="O17" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R17" t="n">
         <v>7.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T17" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="U17" t="n">
         <v>23.5</v>
@@ -3468,13 +3535,13 @@
         <v>21.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>104</v>
+        <v>104.2</v>
       </c>
       <c r="AC17" t="n">
         <v>5.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
         <v>14</v>
@@ -3507,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3519,13 +3586,13 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
@@ -3543,10 +3610,10 @@
         <v>9</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK18" t="n">
         <v>30</v>
@@ -3686,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
@@ -3698,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3707,13 +3774,13 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -3760,19 +3827,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>0.488</v>
+        <v>0.475</v>
       </c>
       <c r="H19" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I19" t="n">
         <v>38.7</v>
@@ -3787,40 +3854,40 @@
         <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O19" t="n">
         <v>21.2</v>
       </c>
       <c r="P19" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.785</v>
+        <v>0.782</v>
       </c>
       <c r="R19" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="S19" t="n">
         <v>32.6</v>
       </c>
       <c r="T19" t="n">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="U19" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W19" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Y19" t="n">
         <v>5.8</v>
@@ -3832,16 +3899,16 @@
         <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
@@ -3850,7 +3917,7 @@
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>7</v>
@@ -3862,7 +3929,7 @@
         <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM19" t="n">
         <v>12</v>
@@ -3889,7 +3956,7 @@
         <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
         <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J20" t="n">
-        <v>84.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.454</v>
       </c>
       <c r="L20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N20" t="n">
-        <v>0.386</v>
+        <v>0.385</v>
       </c>
       <c r="O20" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.768</v>
       </c>
       <c r="R20" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.9</v>
+        <v>43.1</v>
       </c>
       <c r="U20" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
         <v>8.300000000000001</v>
@@ -4008,25 +4075,25 @@
         <v>6.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>21</v>
@@ -4035,10 +4102,10 @@
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK20" t="n">
         <v>11</v>
@@ -4050,52 +4117,52 @@
         <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
         <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
         <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4211,10 +4278,10 @@
         <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4241,7 +4308,7 @@
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4253,7 +4320,7 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4268,7 +4335,7 @@
         <v>6</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -4306,76 +4373,76 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.762</v>
+        <v>0.756</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J22" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.466</v>
       </c>
       <c r="L22" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.349</v>
+        <v>0.343</v>
       </c>
       <c r="O22" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S22" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="T22" t="n">
-        <v>46.7</v>
+        <v>46.8</v>
       </c>
       <c r="U22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V22" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y22" t="n">
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB22" t="n">
         <v>105.3</v>
@@ -4384,10 +4451,10 @@
         <v>7.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
@@ -4414,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
         <v>4</v>
@@ -4426,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4438,19 +4505,19 @@
         <v>16</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
         <v>11</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -4488,43 +4555,43 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
       </c>
       <c r="F23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>0.262</v>
+        <v>0.268</v>
       </c>
       <c r="H23" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I23" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J23" t="n">
-        <v>82.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L23" t="n">
         <v>7.2</v>
       </c>
       <c r="M23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O23" t="n">
         <v>16.1</v>
       </c>
       <c r="P23" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q23" t="n">
         <v>0.753</v>
@@ -4536,16 +4603,16 @@
         <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
         <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
         <v>4.3</v>
@@ -4554,19 +4621,19 @@
         <v>5.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,13 +4645,13 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4599,10 +4666,10 @@
         <v>25</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
         <v>19</v>
@@ -4614,7 +4681,7 @@
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
         <v>20</v>
@@ -4626,7 +4693,7 @@
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,13 +4827,13 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI24" t="n">
         <v>4</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
         <v>19</v>
@@ -4784,7 +4851,7 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4945,7 +5012,7 @@
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
         <v>6</v>
@@ -4984,7 +5051,7 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" t="n">
         <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>0.738</v>
+        <v>0.756</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,28 +5119,28 @@
         <v>40.5</v>
       </c>
       <c r="J26" t="n">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M26" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="N26" t="n">
         <v>0.395</v>
       </c>
       <c r="O26" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.822</v>
+        <v>0.825</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
@@ -5082,55 +5149,55 @@
         <v>33.6</v>
       </c>
       <c r="T26" t="n">
-        <v>46.6</v>
+        <v>46.7</v>
       </c>
       <c r="U26" t="n">
         <v>24.5</v>
       </c>
       <c r="V26" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X26" t="n">
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>109.3</v>
+        <v>109.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>9</v>
@@ -5175,13 +5242,13 @@
         <v>18</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
         <v>4</v>
       </c>
       <c r="BA26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
         <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>0.375</v>
+        <v>0.359</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J27" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
         <v>6.8</v>
@@ -5246,28 +5313,28 @@
         <v>19.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O27" t="n">
         <v>19.7</v>
       </c>
       <c r="P27" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.771</v>
+        <v>0.774</v>
       </c>
       <c r="R27" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S27" t="n">
         <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U27" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
         <v>15</v>
@@ -5276,34 +5343,34 @@
         <v>7.7</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
         <v>5.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.8</v>
+        <v>101.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1.9</v>
+        <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>14</v>
@@ -5312,10 +5379,10 @@
         <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
@@ -5324,13 +5391,13 @@
         <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ27" t="n">
         <v>7</v>
@@ -5345,10 +5412,10 @@
         <v>13</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5360,7 +5427,7 @@
         <v>25</v>
       </c>
       <c r="AZ27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5670,19 +5737,19 @@
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK29" t="n">
         <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
         <v>11</v>
@@ -5715,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -5724,7 +5791,7 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" t="n">
         <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
       </c>
       <c r="I30" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L30" t="n">
         <v>6.6</v>
@@ -5792,19 +5859,19 @@
         <v>18.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O30" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="P30" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S30" t="n">
         <v>30.3</v>
@@ -5819,34 +5886,34 @@
         <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X30" t="n">
         <v>4.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
         <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF30" t="n">
         <v>26</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>27</v>
       </c>
       <c r="AG30" t="n">
         <v>26</v>
@@ -5855,13 +5922,13 @@
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ30" t="n">
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5873,19 +5940,19 @@
         <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5897,7 +5964,7 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6040,13 +6107,13 @@
         <v>16</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>16</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-21-2013-14</t>
+          <t>2014-01-21</t>
         </is>
       </c>
     </row>
